--- a/Highest_Gold_Medals.xlsx
+++ b/Highest_Gold_Medals.xlsx
@@ -9,10 +9,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$208</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$208</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -212,8 +208,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -241,8 +245,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -275,6 +286,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>USA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> takes home gold</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -290,7 +331,10 @@
           <a:pPr>
             <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -352,7 +396,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -372,7 +422,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -395,13 +448,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -471,7 +525,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -491,7 +551,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -514,13 +577,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -590,7 +654,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -610,7 +680,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -633,13 +706,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -709,7 +783,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -729,7 +809,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -752,13 +835,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -828,7 +912,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -848,7 +938,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -871,13 +964,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -947,7 +1041,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -967,7 +1067,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -990,13 +1093,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1069,7 +1173,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1089,7 +1199,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1112,13 +1225,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1191,7 +1305,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1211,7 +1331,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1234,13 +1357,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1313,7 +1437,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1333,7 +1463,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1356,13 +1489,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1435,7 +1569,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1455,7 +1595,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1478,13 +1621,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1557,7 +1701,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1577,7 +1727,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1600,13 +1753,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1679,7 +1833,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1699,7 +1859,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1722,13 +1885,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1804,7 +1968,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1824,7 +1994,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1847,13 +2020,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -1929,7 +2103,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1949,7 +2129,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1972,13 +2155,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2054,7 +2238,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2074,7 +2264,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2097,13 +2290,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2179,7 +2373,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2199,7 +2399,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2222,13 +2425,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2304,7 +2508,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2324,7 +2534,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2347,13 +2560,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2429,7 +2643,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2449,7 +2669,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2472,13 +2695,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2551,7 +2775,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2571,7 +2801,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2594,13 +2827,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2673,7 +2907,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2693,7 +2933,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2716,13 +2959,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2795,7 +3039,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2815,7 +3065,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2838,13 +3091,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2917,7 +3171,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2937,7 +3197,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2960,13 +3223,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -3039,7 +3303,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -3059,7 +3329,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3082,13 +3355,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -3161,7 +3435,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -3181,7 +3461,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3204,13 +3487,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -3286,7 +3570,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -3306,7 +3596,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3329,13 +3622,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -3411,7 +3705,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -3431,7 +3731,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3454,13 +3757,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -3536,7 +3840,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -3556,7 +3866,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3579,13 +3892,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -3661,7 +3975,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -3681,7 +4001,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3704,13 +4027,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -3786,7 +4110,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -3806,7 +4136,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3829,13 +4162,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -3911,7 +4245,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -3931,7 +4271,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3954,13 +4297,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -4033,7 +4377,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -4053,7 +4403,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4076,13 +4429,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -4155,7 +4509,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -4175,7 +4535,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4198,13 +4561,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -4277,7 +4641,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -4297,7 +4667,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4320,13 +4693,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -4399,7 +4773,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -4419,7 +4799,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4442,13 +4825,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -4521,7 +4905,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -4541,7 +4931,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4564,13 +4957,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -4643,7 +5037,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -4663,7 +5063,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4686,13 +5089,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -4768,7 +5172,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -4788,7 +5198,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4811,13 +5224,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -4893,7 +5307,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -4913,7 +5333,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4936,13 +5359,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -5018,7 +5442,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -5038,7 +5468,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5061,13 +5494,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -5143,7 +5577,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -5163,7 +5603,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5186,13 +5629,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -5268,7 +5712,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -5288,7 +5738,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5311,13 +5764,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -5393,7 +5847,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -5413,7 +5873,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5436,13 +5899,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -5515,7 +5979,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -5535,7 +6005,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5558,13 +6031,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -5637,7 +6111,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -5657,7 +6137,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5680,13 +6163,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -5759,7 +6243,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -5779,7 +6269,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5802,13 +6295,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -5881,7 +6375,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -5901,7 +6401,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5924,13 +6427,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -6003,7 +6507,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -6023,7 +6533,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6046,13 +6559,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -6125,7 +6639,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -6145,7 +6665,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6168,13 +6691,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -6250,7 +6774,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -6270,7 +6800,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6293,13 +6826,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -6375,7 +6909,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -6395,7 +6935,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6418,13 +6961,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -6500,7 +7044,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -6520,7 +7070,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6543,13 +7096,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -6625,7 +7179,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -6645,7 +7205,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6668,13 +7231,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -6750,7 +7314,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -6770,7 +7340,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6793,13 +7366,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -6875,7 +7449,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -6895,7 +7475,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6918,13 +7501,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -6994,7 +7578,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -7014,7 +7604,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7037,13 +7630,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -7113,7 +7707,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -7133,7 +7733,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7156,13 +7759,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -7232,7 +7836,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -7252,7 +7862,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7275,13 +7888,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -7351,7 +7965,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -7371,7 +7991,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7394,13 +8017,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -7470,7 +8094,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -7490,7 +8120,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7513,13 +8146,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="tx2">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -7564,7 +8198,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -7573,9 +8207,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7583,7 +8220,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1800" b="1"/>
                   <a:t>Countries</a:t>
                 </a:r>
               </a:p>
@@ -7602,9 +8239,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -7618,6 +8258,39 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="482185344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -7637,7 +8310,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx2">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -7654,9 +8327,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7664,7 +8340,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1800" b="1"/>
                   <a:t>Gold Medals</a:t>
                 </a:r>
               </a:p>
@@ -7683,9 +8359,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -7714,7 +8393,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7753,7 +8435,10 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -7774,7 +8459,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx2">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -7842,27 +8527,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -7885,7 +8576,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -7900,7 +8591,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -7909,8 +8603,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -7936,9 +8631,9 @@
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -7946,9 +8641,9 @@
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -7956,12 +8651,12 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7970,18 +8665,20 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt2"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -7993,9 +8690,9 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8011,16 +8708,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8054,17 +8756,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -8073,14 +8775,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8092,7 +8794,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -8100,12 +8802,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -8119,16 +8821,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -8137,17 +8840,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -8156,16 +8859,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -8174,7 +8878,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
@@ -8183,7 +8890,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -8191,7 +8898,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -8199,12 +8906,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -8219,17 +8929,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -8238,9 +8948,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8249,14 +8962,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -8265,7 +8977,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -8274,7 +8989,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -8295,7 +9010,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -8304,7 +9022,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -8619,16 +9337,19 @@
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8636,7 +9357,7 @@
       <c r="A2" t="s">
         <v>56</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>139</v>
       </c>
     </row>
@@ -8644,7 +9365,7 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>64</v>
       </c>
     </row>
@@ -8652,7 +9373,7 @@
       <c r="A4" t="s">
         <v>44</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>52</v>
       </c>
     </row>
@@ -8660,7 +9381,7 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>49</v>
       </c>
     </row>
@@ -8668,7 +9389,7 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>46</v>
       </c>
     </row>
@@ -8676,7 +9397,7 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>37</v>
       </c>
     </row>
@@ -8684,7 +9405,7 @@
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>23</v>
       </c>
     </row>
@@ -8692,7 +9413,7 @@
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>21</v>
       </c>
     </row>
@@ -8700,7 +9421,7 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>20</v>
       </c>
     </row>
@@ -8708,7 +9429,7 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>17</v>
       </c>
     </row>
@@ -8716,7 +9437,7 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>15</v>
       </c>
     </row>
@@ -8724,7 +9445,7 @@
       <c r="A13" t="s">
         <v>47</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>14</v>
       </c>
     </row>
@@ -8732,7 +9453,7 @@
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>13</v>
       </c>
     </row>
@@ -8740,7 +9461,7 @@
       <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>13</v>
       </c>
     </row>
@@ -8748,7 +9469,7 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>12</v>
       </c>
     </row>
@@ -8756,7 +9477,7 @@
       <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>11</v>
       </c>
     </row>
@@ -8764,7 +9485,7 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>9</v>
       </c>
     </row>
@@ -8772,7 +9493,7 @@
       <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>9</v>
       </c>
     </row>
@@ -8780,7 +9501,7 @@
       <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>8</v>
       </c>
     </row>
@@ -8788,7 +9509,7 @@
       <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>7</v>
       </c>
     </row>
@@ -8796,7 +9517,7 @@
       <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>6</v>
       </c>
     </row>
@@ -8804,7 +9525,7 @@
       <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>6</v>
       </c>
     </row>
@@ -8812,7 +9533,7 @@
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>6</v>
       </c>
     </row>
@@ -8820,7 +9541,7 @@
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8828,7 +9549,7 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>4</v>
       </c>
     </row>
@@ -8836,7 +9557,7 @@
       <c r="A27" t="s">
         <v>42</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>4</v>
       </c>
     </row>
@@ -8844,7 +9565,7 @@
       <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>4</v>
       </c>
     </row>
@@ -8852,7 +9573,7 @@
       <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>3</v>
       </c>
     </row>
@@ -8860,7 +9581,7 @@
       <c r="A30" t="s">
         <v>24</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>3</v>
       </c>
     </row>
@@ -8868,7 +9589,7 @@
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>3</v>
       </c>
     </row>
@@ -8876,7 +9597,7 @@
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>3</v>
       </c>
     </row>
@@ -8884,7 +9605,7 @@
       <c r="A33" t="s">
         <v>39</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>3</v>
       </c>
     </row>
@@ -8892,7 +9613,7 @@
       <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>3</v>
       </c>
     </row>
@@ -8900,7 +9621,7 @@
       <c r="A35" t="s">
         <v>5</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>2</v>
       </c>
     </row>
@@ -8908,7 +9629,7 @@
       <c r="A36" t="s">
         <v>22</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>2</v>
       </c>
     </row>
@@ -8916,7 +9637,7 @@
       <c r="A37" t="s">
         <v>26</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>2</v>
       </c>
     </row>
@@ -8924,7 +9645,7 @@
       <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>2</v>
       </c>
     </row>
@@ -8932,7 +9653,7 @@
       <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>2</v>
       </c>
     </row>
@@ -8940,7 +9661,7 @@
       <c r="A40" t="s">
         <v>50</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>2</v>
       </c>
     </row>
@@ -8948,7 +9669,7 @@
       <c r="A41" t="s">
         <v>51</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>2</v>
       </c>
     </row>
@@ -8956,7 +9677,7 @@
       <c r="A42" t="s">
         <v>55</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>2</v>
       </c>
     </row>
@@ -8964,7 +9685,7 @@
       <c r="A43" t="s">
         <v>1</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>1</v>
       </c>
     </row>
@@ -8972,7 +9693,7 @@
       <c r="A44" t="s">
         <v>3</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>1</v>
       </c>
     </row>
@@ -8980,7 +9701,7 @@
       <c r="A45" t="s">
         <v>4</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>1</v>
       </c>
     </row>
@@ -8988,7 +9709,7 @@
       <c r="A46" t="s">
         <v>6</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>1</v>
       </c>
     </row>
@@ -8996,7 +9717,7 @@
       <c r="A47" t="s">
         <v>8</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>1</v>
       </c>
     </row>
@@ -9004,7 +9725,7 @@
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>1</v>
       </c>
     </row>
@@ -9012,7 +9733,7 @@
       <c r="A49" t="s">
         <v>15</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>1</v>
       </c>
     </row>
@@ -9020,7 +9741,7 @@
       <c r="A50" t="s">
         <v>18</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>1</v>
       </c>
     </row>
@@ -9028,7 +9749,7 @@
       <c r="A51" t="s">
         <v>27</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>1</v>
       </c>
     </row>
@@ -9036,7 +9757,7 @@
       <c r="A52" t="s">
         <v>31</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>1</v>
       </c>
     </row>
@@ -9044,7 +9765,7 @@
       <c r="A53" t="s">
         <v>36</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>1</v>
       </c>
     </row>
@@ -9052,7 +9773,7 @@
       <c r="A54" t="s">
         <v>41</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>1</v>
       </c>
     </row>
@@ -9060,7 +9781,7 @@
       <c r="A55" t="s">
         <v>45</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>1</v>
       </c>
     </row>
@@ -9068,7 +9789,7 @@
       <c r="A56" t="s">
         <v>46</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>1</v>
       </c>
     </row>
@@ -9076,7 +9797,7 @@
       <c r="A57" t="s">
         <v>52</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>1</v>
       </c>
     </row>
@@ -9084,7 +9805,7 @@
       <c r="A58" t="s">
         <v>53</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>1</v>
       </c>
     </row>
@@ -9092,7 +9813,7 @@
       <c r="A59" t="s">
         <v>54</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>1</v>
       </c>
     </row>
@@ -9100,7 +9821,7 @@
       <c r="A60" t="s">
         <v>58</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>1</v>
       </c>
     </row>
